--- a/Electrical/Bill of Materials.xlsx
+++ b/Electrical/Bill of Materials.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepthinacharaju/Documents/Duke/Class/Fall 2018/BME590L/Design Challenge/BME590_Design_Challenge_DN56/Electrical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2AAB8E-44D6-224B-970D-0F558036C10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2BB2F2-E0C6-F34E-9FA4-ED6AD060E6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="16620" xr2:uid="{23CE8197-1D46-9F4D-9005-FFE16743A2DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Self-Tapping 4 Size 1/2" Slotted Screw</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>90053A110</t>
+  </si>
+  <si>
+    <t>Screw</t>
   </si>
 </sst>
 </file>
@@ -236,10 +248,10 @@
     <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD01615-9626-5840-979F-B62C897FD266}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -570,36 +582,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -692,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F11" si="0">E6*D6</f>
+        <f t="shared" ref="F6:F12" si="0">E6*D6</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -820,9 +832,33 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="F12" s="5">
-        <f>SUM(F3:F11)</f>
-        <v>4.97</v>
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="F13" s="5">
+        <f>SUM(F3:F12)</f>
+        <v>4.9982999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -830,5 +866,6 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>